--- a/Table_S1.xlsx
+++ b/Table_S1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldamodar/Dropbox/sylvatic/Forsubmission/Figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ldamodar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="620" windowWidth="24160" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" tabRatio="500" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="CondensedMain" sheetId="10" r:id="rId1"/>
@@ -1614,7 +1614,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1625,12 +1625,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1657,7 +1651,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1679,9 +1673,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1972,19 +1968,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="A160" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="23" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" customWidth="1"/>
     <col min="14" max="14" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
@@ -2014,7 +2010,7 @@
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2043,7 +2039,7 @@
       <c r="Q2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2072,7 +2068,7 @@
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="10" t="s">
@@ -2101,7 +2097,7 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2129,7 +2125,7 @@
       <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2157,7 +2153,7 @@
       <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2185,7 +2181,7 @@
       <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -2213,7 +2209,7 @@
       <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -2241,7 +2237,7 @@
       <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2269,7 +2265,7 @@
       <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2297,7 +2293,7 @@
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2325,7 +2321,7 @@
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="10" t="s">
@@ -2353,7 +2349,7 @@
       <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>87</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2381,7 +2377,7 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="21" t="s">
         <v>221</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2409,7 +2405,7 @@
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="21" t="s">
         <v>222</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -2437,7 +2433,7 @@
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="21" t="s">
         <v>223</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -2465,7 +2461,7 @@
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="21" t="s">
         <v>224</v>
       </c>
       <c r="B18" s="10" t="s">
@@ -2493,7 +2489,7 @@
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="21" t="s">
         <v>225</v>
       </c>
       <c r="B19" s="10" t="s">
@@ -2521,7 +2517,7 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="21" t="s">
         <v>226</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -2549,7 +2545,7 @@
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="21" t="s">
         <v>227</v>
       </c>
       <c r="B21" s="10" t="s">
@@ -2577,7 +2573,7 @@
       <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="21" t="s">
         <v>228</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -2605,7 +2601,7 @@
       <c r="Q22" s="10"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="21" t="s">
         <v>229</v>
       </c>
       <c r="B23" s="10" t="s">
@@ -2633,7 +2629,7 @@
       <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="21" t="s">
         <v>230</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -2661,7 +2657,7 @@
       <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="21" t="s">
         <v>231</v>
       </c>
       <c r="B25" s="10" t="s">
@@ -2689,7 +2685,7 @@
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="21" t="s">
         <v>232</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -2717,7 +2713,7 @@
       <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="21" t="s">
         <v>233</v>
       </c>
       <c r="B27" s="10" t="s">
@@ -2745,7 +2741,7 @@
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="21" t="s">
         <v>234</v>
       </c>
       <c r="B28" s="10" t="s">
@@ -2773,7 +2769,7 @@
       <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="21" t="s">
         <v>235</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -2801,7 +2797,7 @@
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="21" t="s">
         <v>236</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -2829,7 +2825,7 @@
       <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="21" t="s">
         <v>237</v>
       </c>
       <c r="B31" s="10" t="s">
@@ -2857,7 +2853,7 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="21" t="s">
         <v>190</v>
       </c>
       <c r="B32" s="10" t="s">
@@ -2885,7 +2881,7 @@
       <c r="Q32" s="10"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>44</v>
       </c>
       <c r="B33" s="10" t="s">
@@ -2913,7 +2909,7 @@
       <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -2941,7 +2937,7 @@
       <c r="Q34" s="10"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="10" t="s">
@@ -2969,7 +2965,7 @@
       <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -2997,7 +2993,7 @@
       <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="10" t="s">
@@ -3025,7 +3021,7 @@
       <c r="Q37" s="10"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="21" t="s">
         <v>136</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -3053,7 +3049,7 @@
       <c r="Q38" s="10"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="21" t="s">
         <v>132</v>
       </c>
       <c r="B39" s="10" t="s">
@@ -3081,7 +3077,7 @@
       <c r="Q39" s="10"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="21" t="s">
         <v>131</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -3109,7 +3105,7 @@
       <c r="Q40" s="7"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="21" t="s">
         <v>122</v>
       </c>
       <c r="B41" s="10" t="s">
@@ -3137,7 +3133,7 @@
       <c r="Q41" s="10"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="21" t="s">
         <v>121</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -3165,7 +3161,7 @@
       <c r="Q42" s="10"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="21" t="s">
         <v>120</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -3193,7 +3189,7 @@
       <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="21" t="s">
         <v>145</v>
       </c>
       <c r="B44" s="10" t="s">
@@ -3221,7 +3217,7 @@
       <c r="Q44" s="10"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="21" t="s">
         <v>161</v>
       </c>
       <c r="B45" s="10" t="s">
@@ -3249,7 +3245,7 @@
       <c r="Q45" s="10"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="21" t="s">
         <v>147</v>
       </c>
       <c r="B46" s="10" t="s">
@@ -3277,7 +3273,7 @@
       <c r="Q46" s="10"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
+      <c r="A47" s="21" t="s">
         <v>148</v>
       </c>
       <c r="B47" s="10" t="s">
@@ -3305,7 +3301,7 @@
       <c r="Q47" s="10"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="21" t="s">
         <v>149</v>
       </c>
       <c r="B48" s="10" t="s">
@@ -3333,7 +3329,7 @@
       <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="21" t="s">
         <v>150</v>
       </c>
       <c r="B49" s="10" t="s">
@@ -3361,7 +3357,7 @@
       <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
+      <c r="A50" s="21" t="s">
         <v>151</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -3389,7 +3385,7 @@
       <c r="Q50" s="10"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="21" t="s">
         <v>152</v>
       </c>
       <c r="B51" s="10" t="s">
@@ -3417,7 +3413,7 @@
       <c r="Q51" s="10"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="21" t="s">
         <v>153</v>
       </c>
       <c r="B52" s="10" t="s">
@@ -3445,7 +3441,7 @@
       <c r="Q52" s="10"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
+      <c r="A53" s="21" t="s">
         <v>158</v>
       </c>
       <c r="B53" s="10" t="s">
@@ -3473,7 +3469,7 @@
       <c r="Q53" s="10"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="21" t="s">
         <v>160</v>
       </c>
       <c r="B54" s="10" t="s">
@@ -3501,7 +3497,7 @@
       <c r="Q54" s="10"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="21" t="s">
         <v>155</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -3529,7 +3525,7 @@
       <c r="Q55" s="10"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="21" t="s">
         <v>156</v>
       </c>
       <c r="B56" s="10" t="s">
@@ -3557,7 +3553,7 @@
       <c r="Q56" s="10"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="21" t="s">
         <v>154</v>
       </c>
       <c r="B57" s="10" t="s">
@@ -3585,7 +3581,7 @@
       <c r="Q57" s="10"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="21" t="s">
         <v>196</v>
       </c>
       <c r="B58" s="10" t="s">
@@ -3613,7 +3609,7 @@
       <c r="Q58" s="10"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
+      <c r="A59" s="21" t="s">
         <v>191</v>
       </c>
       <c r="B59" s="10" t="s">
@@ -3641,7 +3637,7 @@
       <c r="Q59" s="10"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="21" t="s">
         <v>159</v>
       </c>
       <c r="B60" s="10" t="s">
@@ -3669,7 +3665,7 @@
       <c r="Q60" s="10"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="21" t="s">
         <v>142</v>
       </c>
       <c r="B61" s="10" t="s">
@@ -3684,7 +3680,7 @@
       <c r="E61" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="19">
         <v>2</v>
       </c>
       <c r="G61">
@@ -3697,7 +3693,7 @@
       <c r="Q61" s="10"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="21" t="s">
         <v>143</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -3725,7 +3721,7 @@
       <c r="Q62" s="10"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="21" t="s">
         <v>144</v>
       </c>
       <c r="B63" s="10" t="s">
@@ -3753,7 +3749,7 @@
       <c r="Q63" s="10"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="21" t="s">
         <v>216</v>
       </c>
       <c r="B64" s="10" t="s">
@@ -3782,7 +3778,7 @@
       <c r="Q64" s="10"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="21" t="s">
         <v>220</v>
       </c>
       <c r="B65" s="16" t="s">
@@ -3811,7 +3807,7 @@
       <c r="Q65" s="10"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="21" t="s">
         <v>219</v>
       </c>
       <c r="B66" s="10" t="s">
@@ -3840,7 +3836,7 @@
       <c r="Q66" s="10"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="21" t="s">
         <v>215</v>
       </c>
       <c r="B67" s="10" t="s">
@@ -3869,7 +3865,7 @@
       <c r="Q67" s="10"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
+      <c r="A68" s="21" t="s">
         <v>214</v>
       </c>
       <c r="B68" s="10" t="s">
@@ -3898,7 +3894,7 @@
       <c r="Q68" s="10"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
+      <c r="A69" s="21" t="s">
         <v>213</v>
       </c>
       <c r="B69" s="10" t="s">
@@ -3923,10 +3919,10 @@
       <c r="N69" s="10"/>
       <c r="O69" s="9"/>
       <c r="P69" s="10"/>
-      <c r="Q69" s="20"/>
+      <c r="Q69" s="19"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="21" t="s">
         <v>210</v>
       </c>
       <c r="B70" s="10" t="s">
@@ -3954,7 +3950,7 @@
       <c r="Q70" s="10"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
+      <c r="A71" s="21" t="s">
         <v>209</v>
       </c>
       <c r="B71" s="10" t="s">
@@ -3982,7 +3978,7 @@
       <c r="Q71" s="10"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
+      <c r="A72" s="21" t="s">
         <v>207</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -4010,7 +4006,7 @@
       <c r="Q72" s="10"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
+      <c r="A73" s="21" t="s">
         <v>206</v>
       </c>
       <c r="B73" s="10" t="s">
@@ -4038,7 +4034,7 @@
       <c r="Q73" s="10"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
+      <c r="A74" s="21" t="s">
         <v>201</v>
       </c>
       <c r="B74" s="10" t="s">
@@ -4066,7 +4062,7 @@
       <c r="Q74" s="10"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
+      <c r="A75" s="21" t="s">
         <v>199</v>
       </c>
       <c r="B75" s="10" t="s">
@@ -4094,7 +4090,7 @@
       <c r="Q75" s="10"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
+      <c r="A76" s="21" t="s">
         <v>218</v>
       </c>
       <c r="B76" s="10" t="s">
@@ -4122,7 +4118,7 @@
       <c r="Q76" s="10"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
+      <c r="A77" s="21" t="s">
         <v>198</v>
       </c>
       <c r="B77" s="10" t="s">
@@ -4150,7 +4146,7 @@
       <c r="Q77" s="10"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="16" t="s">
+      <c r="A78" s="21" t="s">
         <v>193</v>
       </c>
       <c r="B78" s="10" t="s">
@@ -4178,7 +4174,7 @@
       <c r="Q78" s="10"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
+      <c r="A79" s="21" t="s">
         <v>162</v>
       </c>
       <c r="B79" s="10" t="s">
@@ -4206,7 +4202,7 @@
       <c r="Q79" s="10"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80" s="16" t="s">
+      <c r="A80" s="21" t="s">
         <v>173</v>
       </c>
       <c r="B80" s="10" t="s">
@@ -4234,7 +4230,7 @@
       <c r="Q80" s="10"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="21" t="s">
         <v>163</v>
       </c>
       <c r="B81" s="10" t="s">
@@ -4262,7 +4258,7 @@
       <c r="Q81" s="10"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="21" t="s">
         <v>164</v>
       </c>
       <c r="B82" s="10" t="s">
@@ -4290,7 +4286,7 @@
       <c r="Q82" s="10"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A83" s="16" t="s">
+      <c r="A83" s="21" t="s">
         <v>165</v>
       </c>
       <c r="B83" s="10" t="s">
@@ -4318,7 +4314,7 @@
       <c r="Q83" s="10"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A84" s="16" t="s">
+      <c r="A84" s="21" t="s">
         <v>166</v>
       </c>
       <c r="B84" s="10" t="s">
@@ -4346,7 +4342,7 @@
       <c r="Q84" s="10"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A85" s="16" t="s">
+      <c r="A85" s="21" t="s">
         <v>167</v>
       </c>
       <c r="B85" s="10" t="s">
@@ -4374,7 +4370,7 @@
       <c r="Q85" s="10"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A86" s="16" t="s">
+      <c r="A86" s="21" t="s">
         <v>168</v>
       </c>
       <c r="B86" s="10" t="s">
@@ -4402,7 +4398,7 @@
       <c r="Q86" s="10"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="21" t="s">
         <v>169</v>
       </c>
       <c r="B87" s="10" t="s">
@@ -4430,7 +4426,7 @@
       <c r="Q87" s="10"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="21" t="s">
         <v>170</v>
       </c>
       <c r="B88" s="10" t="s">
@@ -4458,7 +4454,7 @@
       <c r="Q88" s="10"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
+      <c r="A89" s="21" t="s">
         <v>384</v>
       </c>
       <c r="B89" s="10" t="s">
@@ -4486,7 +4482,7 @@
       <c r="Q89" s="10"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A90" s="16" t="s">
+      <c r="A90" s="21" t="s">
         <v>385</v>
       </c>
       <c r="B90" s="10" t="s">
@@ -4514,7 +4510,7 @@
       <c r="Q90" s="10"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A91" s="16" t="s">
+      <c r="A91" s="21" t="s">
         <v>249</v>
       </c>
       <c r="B91" s="10" t="s">
@@ -4542,7 +4538,7 @@
       <c r="Q91" s="10"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="21" t="s">
         <v>250</v>
       </c>
       <c r="B92" s="10" t="s">
@@ -4570,7 +4566,7 @@
       <c r="Q92" s="10"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A93" s="16" t="s">
+      <c r="A93" s="21" t="s">
         <v>251</v>
       </c>
       <c r="B93" s="10" t="s">
@@ -4598,7 +4594,7 @@
       <c r="Q93" s="10"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A94" s="16" t="s">
+      <c r="A94" s="21" t="s">
         <v>252</v>
       </c>
       <c r="B94" s="10" t="s">
@@ -4626,7 +4622,7 @@
       <c r="Q94" s="10"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A95" s="16" t="s">
+      <c r="A95" s="21" t="s">
         <v>253</v>
       </c>
       <c r="B95" s="10" t="s">
@@ -4654,7 +4650,7 @@
       <c r="Q95" s="10"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A96" s="16" t="s">
+      <c r="A96" s="21" t="s">
         <v>254</v>
       </c>
       <c r="B96" s="10" t="s">
@@ -4682,7 +4678,7 @@
       <c r="Q96" s="10"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A97" s="16" t="s">
+      <c r="A97" s="21" t="s">
         <v>255</v>
       </c>
       <c r="B97" s="10" t="s">
@@ -4710,7 +4706,7 @@
       <c r="Q97" s="10"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A98" s="16" t="s">
+      <c r="A98" s="21" t="s">
         <v>256</v>
       </c>
       <c r="B98" s="10" t="s">
@@ -4738,7 +4734,7 @@
       <c r="Q98" s="10"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="21" t="s">
         <v>257</v>
       </c>
       <c r="B99" s="10" t="s">
@@ -4766,7 +4762,7 @@
       <c r="Q99" s="10"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A100" s="16" t="s">
+      <c r="A100" s="21" t="s">
         <v>258</v>
       </c>
       <c r="B100" s="10" t="s">
@@ -4794,7 +4790,7 @@
       <c r="Q100" s="10"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="21" t="s">
         <v>259</v>
       </c>
       <c r="B101" s="10" t="s">
@@ -4822,7 +4818,7 @@
       <c r="Q101" s="10"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="21" t="s">
         <v>260</v>
       </c>
       <c r="B102" s="10" t="s">
@@ -4850,7 +4846,7 @@
       <c r="Q102" s="10"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="21" t="s">
         <v>261</v>
       </c>
       <c r="B103" s="10" t="s">
@@ -4878,7 +4874,7 @@
       <c r="Q103" s="10"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A104" s="16" t="s">
+      <c r="A104" s="21" t="s">
         <v>262</v>
       </c>
       <c r="B104" s="10" t="s">
@@ -4906,7 +4902,7 @@
       <c r="Q104" s="10"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="21" t="s">
         <v>263</v>
       </c>
       <c r="B105" s="10" t="s">
@@ -4934,7 +4930,7 @@
       <c r="Q105" s="10"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="21" t="s">
         <v>264</v>
       </c>
       <c r="B106" s="10" t="s">
@@ -4962,7 +4958,7 @@
       <c r="Q106" s="10"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="21" t="s">
         <v>265</v>
       </c>
       <c r="B107" s="10" t="s">
@@ -4990,7 +4986,7 @@
       <c r="Q107" s="10"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="21" t="s">
         <v>266</v>
       </c>
       <c r="B108" s="10" t="s">
@@ -5018,7 +5014,7 @@
       <c r="Q108" s="10"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="21" t="s">
         <v>267</v>
       </c>
       <c r="B109" s="10" t="s">
@@ -5046,7 +5042,7 @@
       <c r="Q109" s="10"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="21" t="s">
         <v>268</v>
       </c>
       <c r="B110" s="10" t="s">
@@ -5074,7 +5070,7 @@
       <c r="Q110" s="10"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="21" t="s">
         <v>269</v>
       </c>
       <c r="B111" s="10" t="s">
@@ -5102,7 +5098,7 @@
       <c r="Q111" s="10"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="21" t="s">
         <v>174</v>
       </c>
       <c r="B112" s="10" t="s">
@@ -5130,7 +5126,7 @@
       <c r="Q112" s="10"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A113" s="16" t="s">
+      <c r="A113" s="21" t="s">
         <v>178</v>
       </c>
       <c r="B113" s="10" t="s">
@@ -5158,7 +5154,7 @@
       <c r="Q113" s="10"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A114" s="16" t="s">
+      <c r="A114" s="21" t="s">
         <v>180</v>
       </c>
       <c r="B114" s="10" t="s">
@@ -5186,7 +5182,7 @@
       <c r="Q114" s="10"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="21" t="s">
         <v>184</v>
       </c>
       <c r="B115" s="10" t="s">
@@ -5214,7 +5210,7 @@
       <c r="Q115" s="10"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A116" s="16" t="s">
+      <c r="A116" s="21" t="s">
         <v>185</v>
       </c>
       <c r="B116" s="10" t="s">
@@ -5242,7 +5238,7 @@
       <c r="Q116" s="10"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="21" t="s">
         <v>186</v>
       </c>
       <c r="B117" s="10" t="s">
@@ -5270,7 +5266,7 @@
       <c r="Q117" s="10"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A118" s="16" t="s">
+      <c r="A118" s="21" t="s">
         <v>386</v>
       </c>
       <c r="B118" s="10" t="s">
@@ -5298,7 +5294,7 @@
       <c r="Q118" s="10"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A119" s="16" t="s">
+      <c r="A119" s="21" t="s">
         <v>241</v>
       </c>
       <c r="B119" s="10" t="s">
@@ -5326,7 +5322,7 @@
       <c r="Q119" s="10"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="21" t="s">
         <v>242</v>
       </c>
       <c r="B120" s="10" t="s">
@@ -5354,7 +5350,7 @@
       <c r="Q120" s="10"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A121" s="16" t="s">
+      <c r="A121" s="21" t="s">
         <v>243</v>
       </c>
       <c r="B121" s="10" t="s">
@@ -5382,7 +5378,7 @@
       <c r="Q121" s="10"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="21" t="s">
         <v>244</v>
       </c>
       <c r="B122" s="10" t="s">
@@ -5410,7 +5406,7 @@
       <c r="Q122" s="10"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A123" s="16" t="s">
+      <c r="A123" s="21" t="s">
         <v>245</v>
       </c>
       <c r="B123" s="10" t="s">
@@ -5438,7 +5434,7 @@
       <c r="Q123" s="10"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A124" s="16" t="s">
+      <c r="A124" s="21" t="s">
         <v>246</v>
       </c>
       <c r="B124" s="10" t="s">
@@ -5466,7 +5462,7 @@
       <c r="Q124" s="10"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="21" t="s">
         <v>240</v>
       </c>
       <c r="B125" s="10" t="s">
@@ -5494,7 +5490,7 @@
       <c r="Q125" s="10"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>52</v>
       </c>
       <c r="B126" s="10" t="s">
@@ -5522,7 +5518,7 @@
       <c r="Q126" s="10"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>65</v>
       </c>
       <c r="B127" s="10" t="s">
@@ -5550,7 +5546,7 @@
       <c r="Q127" s="10"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>81</v>
       </c>
       <c r="B128" s="10" t="s">
@@ -5578,7 +5574,7 @@
       <c r="Q128" s="10"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>55</v>
       </c>
       <c r="B129" s="10" t="s">
@@ -5606,7 +5602,7 @@
       <c r="Q129" s="10"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>10</v>
       </c>
       <c r="B130" s="10" t="s">
@@ -5634,7 +5630,7 @@
       <c r="Q130" s="10"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>33</v>
       </c>
       <c r="B131" s="10" t="s">
@@ -5662,7 +5658,7 @@
       <c r="Q131" s="10"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>54</v>
       </c>
       <c r="B132" s="10" t="s">
@@ -5690,7 +5686,7 @@
       <c r="Q132" s="10"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>20</v>
       </c>
       <c r="B133" s="10" t="s">
@@ -5718,7 +5714,7 @@
       <c r="Q133" s="10"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>37</v>
       </c>
       <c r="B134" s="10" t="s">
@@ -5746,7 +5742,7 @@
       <c r="Q134" s="10"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>36</v>
       </c>
       <c r="B135" s="10" t="s">
@@ -5774,7 +5770,7 @@
       <c r="Q135" s="10"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>79</v>
       </c>
       <c r="B136" s="10" t="s">
@@ -5802,7 +5798,7 @@
       <c r="Q136" s="10"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>64</v>
       </c>
       <c r="B137" s="10" t="s">
@@ -5830,7 +5826,7 @@
       <c r="Q137" s="10"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>59</v>
       </c>
       <c r="B138" s="10" t="s">
@@ -5858,7 +5854,7 @@
       <c r="Q138" s="10"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>72</v>
       </c>
       <c r="B139" s="10" t="s">
@@ -5886,7 +5882,7 @@
       <c r="Q139" s="10"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>7</v>
       </c>
       <c r="B140" s="10" t="s">
@@ -5914,7 +5910,7 @@
       <c r="Q140" s="10"/>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>80</v>
       </c>
       <c r="B141" s="10" t="s">
@@ -5942,7 +5938,7 @@
       <c r="Q141" s="10"/>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>76</v>
       </c>
       <c r="B142" s="10" t="s">
@@ -5970,7 +5966,7 @@
       <c r="Q142" s="10"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>83</v>
       </c>
       <c r="B143" s="10" t="s">
@@ -5998,7 +5994,7 @@
       <c r="Q143" s="10"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>58</v>
       </c>
       <c r="B144" s="10" t="s">
@@ -6026,7 +6022,7 @@
       <c r="Q144" s="10"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>25</v>
       </c>
       <c r="B145" s="10" t="s">
@@ -6054,7 +6050,7 @@
       <c r="Q145" s="10"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>39</v>
       </c>
       <c r="B146" s="10" t="s">
@@ -6082,7 +6078,7 @@
       <c r="Q146" s="10"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>47</v>
       </c>
       <c r="B147" s="10" t="s">
@@ -6110,7 +6106,7 @@
       <c r="Q147" s="10"/>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>63</v>
       </c>
       <c r="B148" s="10" t="s">
@@ -6138,7 +6134,7 @@
       <c r="Q148" s="10"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>30</v>
       </c>
       <c r="B149" s="10" t="s">
@@ -6166,7 +6162,7 @@
       <c r="Q149" s="10"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>12</v>
       </c>
       <c r="B150" s="10" t="s">
@@ -6194,7 +6190,7 @@
       <c r="Q150" s="10"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>46</v>
       </c>
       <c r="B151" s="10" t="s">
@@ -6222,7 +6218,7 @@
       <c r="Q151" s="16"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>51</v>
       </c>
       <c r="B152" s="10" t="s">
@@ -6250,7 +6246,7 @@
       <c r="Q152" s="16"/>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>13</v>
       </c>
       <c r="B153" s="10" t="s">
@@ -6278,7 +6274,7 @@
       <c r="Q153" s="16"/>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>35</v>
       </c>
       <c r="B154" s="10" t="s">
@@ -6306,7 +6302,7 @@
       <c r="Q154" s="16"/>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>67</v>
       </c>
       <c r="B155" s="10" t="s">
@@ -6334,7 +6330,7 @@
       <c r="Q155" s="16"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>62</v>
       </c>
       <c r="B156" s="10" t="s">
@@ -6362,7 +6358,7 @@
       <c r="Q156" s="16"/>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>74</v>
       </c>
       <c r="B157" s="10" t="s">
@@ -6390,7 +6386,7 @@
       <c r="Q157" s="16"/>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>82</v>
       </c>
       <c r="B158" s="10" t="s">
@@ -6418,7 +6414,7 @@
       <c r="Q158" s="10"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>17</v>
       </c>
       <c r="B159" s="10" t="s">
@@ -6446,7 +6442,7 @@
       <c r="Q159" s="10"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>68</v>
       </c>
       <c r="B160" s="10" t="s">
@@ -6474,7 +6470,7 @@
       <c r="Q160" s="10"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>71</v>
       </c>
       <c r="B161" s="10" t="s">
@@ -6502,7 +6498,7 @@
       <c r="Q161" s="10"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>75</v>
       </c>
       <c r="B162" s="10" t="s">
@@ -6530,7 +6526,7 @@
       <c r="Q162" s="10"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>26</v>
       </c>
       <c r="B163" s="10" t="s">
@@ -6558,7 +6554,7 @@
       <c r="Q163" s="10"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
         <v>53</v>
       </c>
       <c r="B164" s="10" t="s">
@@ -6586,7 +6582,7 @@
       <c r="Q164" s="10"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+      <c r="A165" t="s">
         <v>78</v>
       </c>
       <c r="B165" s="10" t="s">
@@ -6614,7 +6610,7 @@
       <c r="Q165" s="10"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>8</v>
       </c>
       <c r="B166" s="10" t="s">
@@ -6642,7 +6638,7 @@
       <c r="Q166" s="10"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+      <c r="A167" t="s">
         <v>77</v>
       </c>
       <c r="B167" s="10" t="s">
@@ -6670,7 +6666,7 @@
       <c r="Q167" s="10"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+      <c r="A168" t="s">
         <v>9</v>
       </c>
       <c r="B168" s="10" t="s">
@@ -6698,7 +6694,7 @@
       <c r="Q168" s="10"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+      <c r="A169" t="s">
         <v>50</v>
       </c>
       <c r="B169" s="10" t="s">
@@ -6726,7 +6722,7 @@
       <c r="Q169" s="16"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+      <c r="A170" t="s">
         <v>56</v>
       </c>
       <c r="B170" s="10" t="s">
@@ -6754,7 +6750,7 @@
       <c r="Q170" s="16"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
+      <c r="A171" t="s">
         <v>88</v>
       </c>
       <c r="B171" s="10" t="s">
@@ -6782,7 +6778,7 @@
       <c r="Q171" s="16"/>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
+      <c r="A172" t="s">
         <v>28</v>
       </c>
       <c r="B172" s="10" t="s">
@@ -6810,7 +6806,7 @@
       <c r="Q172" s="16"/>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="A173" s="23" t="s">
         <v>404</v>
       </c>
       <c r="B173" s="10" t="s">
@@ -6838,7 +6834,7 @@
       <c r="Q173" s="16"/>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
+      <c r="A174" t="s">
         <v>38</v>
       </c>
       <c r="B174" s="10" t="s">
@@ -6866,7 +6862,7 @@
       <c r="Q174" s="16"/>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>49</v>
       </c>
       <c r="B175" s="10" t="s">
@@ -6894,7 +6890,7 @@
       <c r="Q175" s="16"/>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>16</v>
       </c>
       <c r="B176" s="10" t="s">
@@ -6922,7 +6918,7 @@
       <c r="Q176" s="16"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
+      <c r="A177" t="s">
         <v>61</v>
       </c>
       <c r="B177" s="10" t="s">
@@ -6950,7 +6946,7 @@
       <c r="Q177" s="16"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
+      <c r="A178" t="s">
         <v>70</v>
       </c>
       <c r="B178" s="10" t="s">
@@ -6978,7 +6974,7 @@
       <c r="Q178" s="16"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
+      <c r="A179" t="s">
         <v>41</v>
       </c>
       <c r="B179" s="10" t="s">
@@ -7006,7 +7002,7 @@
       <c r="Q179" s="10"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
+      <c r="A180" t="s">
         <v>42</v>
       </c>
       <c r="B180" s="10" t="s">
@@ -7034,7 +7030,7 @@
       <c r="Q180" s="10"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
+      <c r="A181" t="s">
         <v>66</v>
       </c>
       <c r="B181" s="10" t="s">
@@ -7062,7 +7058,7 @@
       <c r="Q181" s="10"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
+      <c r="A182" t="s">
         <v>14</v>
       </c>
       <c r="B182" s="10" t="s">
@@ -7090,7 +7086,7 @@
       <c r="Q182" s="10"/>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
+      <c r="A183" t="s">
         <v>40</v>
       </c>
       <c r="B183" s="10" t="s">
@@ -7118,7 +7114,7 @@
       <c r="Q183" s="10"/>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
+      <c r="A184" t="s">
         <v>60</v>
       </c>
       <c r="B184" s="10" t="s">
@@ -7146,7 +7142,7 @@
       <c r="Q184" s="10"/>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="A185" s="23" t="s">
         <v>403</v>
       </c>
       <c r="B185" s="10" t="s">
@@ -7174,7 +7170,7 @@
       <c r="Q185" s="10"/>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A186" s="18" t="s">
+      <c r="A186" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B186" s="10" t="s">
@@ -7202,7 +7198,7 @@
       <c r="Q186" s="10"/>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
+      <c r="A187" t="s">
         <v>85</v>
       </c>
       <c r="B187" s="10" t="s">
@@ -7230,7 +7226,7 @@
       <c r="Q187" s="10"/>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
+      <c r="A188" t="s">
         <v>86</v>
       </c>
       <c r="B188" s="10" t="s">
@@ -7258,7 +7254,7 @@
       <c r="Q188" s="10"/>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
+      <c r="A189" t="s">
         <v>15</v>
       </c>
       <c r="B189" s="10" t="s">
@@ -7286,7 +7282,7 @@
       <c r="Q189" s="10"/>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
+      <c r="A190" t="s">
         <v>29</v>
       </c>
       <c r="B190" s="10" t="s">
@@ -7315,7 +7311,7 @@
       <c r="Q190" s="16"/>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
+      <c r="A191" t="s">
         <v>69</v>
       </c>
       <c r="B191" s="10" t="s">
@@ -7344,7 +7340,7 @@
       <c r="Q191" s="16"/>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
+      <c r="A192" t="s">
         <v>73</v>
       </c>
       <c r="B192" s="10" t="s">
@@ -7378,89 +7374,6 @@
       <sortCondition ref="A1:A192"/>
     </sortState>
   </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="A9" r:id="rId1"/>
-    <hyperlink ref="A35" r:id="rId2"/>
-    <hyperlink ref="A36" r:id="rId3"/>
-    <hyperlink ref="A165" r:id="rId4"/>
-    <hyperlink ref="A167" r:id="rId5"/>
-    <hyperlink ref="A190" r:id="rId6"/>
-    <hyperlink ref="A2" r:id="rId7"/>
-    <hyperlink ref="A3" r:id="rId8"/>
-    <hyperlink ref="A4" r:id="rId9"/>
-    <hyperlink ref="A5" r:id="rId10"/>
-    <hyperlink ref="A6" r:id="rId11"/>
-    <hyperlink ref="A7" r:id="rId12"/>
-    <hyperlink ref="A8" r:id="rId13"/>
-    <hyperlink ref="A33" r:id="rId14"/>
-    <hyperlink ref="A37" r:id="rId15"/>
-    <hyperlink ref="A126" r:id="rId16"/>
-    <hyperlink ref="A127" r:id="rId17"/>
-    <hyperlink ref="A128" r:id="rId18"/>
-    <hyperlink ref="A129" r:id="rId19"/>
-    <hyperlink ref="A130" r:id="rId20"/>
-    <hyperlink ref="A131" r:id="rId21"/>
-    <hyperlink ref="A132" r:id="rId22"/>
-    <hyperlink ref="A133" r:id="rId23"/>
-    <hyperlink ref="A134" r:id="rId24"/>
-    <hyperlink ref="A135" r:id="rId25"/>
-    <hyperlink ref="A136" r:id="rId26"/>
-    <hyperlink ref="A137" r:id="rId27"/>
-    <hyperlink ref="A138" r:id="rId28"/>
-    <hyperlink ref="A139" r:id="rId29"/>
-    <hyperlink ref="A140" r:id="rId30"/>
-    <hyperlink ref="A141" r:id="rId31"/>
-    <hyperlink ref="A142" r:id="rId32"/>
-    <hyperlink ref="A164" r:id="rId33"/>
-    <hyperlink ref="A187" r:id="rId34"/>
-    <hyperlink ref="A188" r:id="rId35"/>
-    <hyperlink ref="A189" r:id="rId36"/>
-    <hyperlink ref="A191" r:id="rId37"/>
-    <hyperlink ref="A192" r:id="rId38"/>
-    <hyperlink ref="A143" r:id="rId39"/>
-    <hyperlink ref="A144" r:id="rId40"/>
-    <hyperlink ref="A145" r:id="rId41"/>
-    <hyperlink ref="A146" r:id="rId42"/>
-    <hyperlink ref="A147" r:id="rId43"/>
-    <hyperlink ref="A148" r:id="rId44"/>
-    <hyperlink ref="A149" r:id="rId45"/>
-    <hyperlink ref="A150" r:id="rId46"/>
-    <hyperlink ref="A151" r:id="rId47"/>
-    <hyperlink ref="A152" r:id="rId48"/>
-    <hyperlink ref="A153" r:id="rId49"/>
-    <hyperlink ref="A154" r:id="rId50"/>
-    <hyperlink ref="A155" r:id="rId51"/>
-    <hyperlink ref="A156" r:id="rId52"/>
-    <hyperlink ref="A157" r:id="rId53"/>
-    <hyperlink ref="A158" r:id="rId54"/>
-    <hyperlink ref="A159" r:id="rId55"/>
-    <hyperlink ref="A160" r:id="rId56"/>
-    <hyperlink ref="A161" r:id="rId57"/>
-    <hyperlink ref="A162" r:id="rId58"/>
-    <hyperlink ref="A163" r:id="rId59"/>
-    <hyperlink ref="A166" r:id="rId60"/>
-    <hyperlink ref="A10" r:id="rId61"/>
-    <hyperlink ref="A11" r:id="rId62"/>
-    <hyperlink ref="A12" r:id="rId63"/>
-    <hyperlink ref="A13" r:id="rId64"/>
-    <hyperlink ref="A14" r:id="rId65"/>
-    <hyperlink ref="A168" r:id="rId66"/>
-    <hyperlink ref="A169" r:id="rId67"/>
-    <hyperlink ref="A170" r:id="rId68"/>
-    <hyperlink ref="A171" r:id="rId69"/>
-    <hyperlink ref="A172" r:id="rId70"/>
-    <hyperlink ref="A174" r:id="rId71"/>
-    <hyperlink ref="A175" r:id="rId72"/>
-    <hyperlink ref="A176" r:id="rId73"/>
-    <hyperlink ref="A177" r:id="rId74"/>
-    <hyperlink ref="A178" r:id="rId75"/>
-    <hyperlink ref="A179" r:id="rId76"/>
-    <hyperlink ref="A180" r:id="rId77"/>
-    <hyperlink ref="A181" r:id="rId78"/>
-    <hyperlink ref="A182" r:id="rId79"/>
-    <hyperlink ref="A183" r:id="rId80"/>
-    <hyperlink ref="A184" r:id="rId81"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15599,7 +15512,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="9"/>
       <c r="M64" s="10"/>
-      <c r="N64" s="20"/>
+      <c r="N64" s="19"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -17251,7 +17164,7 @@
       <c r="D10" t="s">
         <v>392</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>402</v>
       </c>
     </row>
@@ -23260,7 +23173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
